--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H2">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>83.1719407628344</v>
+        <v>116.3768974866563</v>
       </c>
       <c r="R2">
-        <v>83.1719407628344</v>
+        <v>1047.392077379907</v>
       </c>
       <c r="S2">
-        <v>0.001803857077673905</v>
+        <v>0.001861060994546997</v>
       </c>
       <c r="T2">
-        <v>0.001803857077673905</v>
+        <v>0.001861060994546997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H3">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>165.0135430984723</v>
+        <v>178.7902592048969</v>
       </c>
       <c r="R3">
-        <v>165.0135430984723</v>
+        <v>1609.112332844072</v>
       </c>
       <c r="S3">
-        <v>0.003578861391235418</v>
+        <v>0.002859154907865904</v>
       </c>
       <c r="T3">
-        <v>0.003578861391235418</v>
+        <v>0.002859154907865904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H4">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>77.467093860584</v>
+        <v>89.34024250488089</v>
       </c>
       <c r="R4">
-        <v>77.467093860584</v>
+        <v>804.0621825439281</v>
       </c>
       <c r="S4">
-        <v>0.00168012871006235</v>
+        <v>0.001428699717555777</v>
       </c>
       <c r="T4">
-        <v>0.00168012871006235</v>
+        <v>0.001428699717555776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H5">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>86.95029335147636</v>
+        <v>93.77206423065445</v>
       </c>
       <c r="R5">
-        <v>86.95029335147636</v>
+        <v>843.9485780758902</v>
       </c>
       <c r="S5">
-        <v>0.001885803080093208</v>
+        <v>0.001499571950161641</v>
       </c>
       <c r="T5">
-        <v>0.001885803080093208</v>
+        <v>0.001499571950161641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H6">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>64.93013509686166</v>
+        <v>71.43058977054466</v>
       </c>
       <c r="R6">
-        <v>64.93013509686166</v>
+        <v>642.875307934902</v>
       </c>
       <c r="S6">
-        <v>0.001408223526763418</v>
+        <v>0.001142294452854706</v>
       </c>
       <c r="T6">
-        <v>0.001408223526763418</v>
+        <v>0.001142294452854706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H7">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>122.7133480850444</v>
+        <v>142.2008742373139</v>
       </c>
       <c r="R7">
-        <v>122.7133480850444</v>
+        <v>1279.807868135825</v>
       </c>
       <c r="S7">
-        <v>0.002661442542256787</v>
+        <v>0.002274029520884002</v>
       </c>
       <c r="T7">
-        <v>0.002661442542256787</v>
+        <v>0.002274029520884002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H8">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>2506.98870751105</v>
+        <v>3257.5504000024</v>
       </c>
       <c r="R8">
-        <v>2506.98870751105</v>
+        <v>29317.9536000216</v>
       </c>
       <c r="S8">
-        <v>0.05437229529833387</v>
+        <v>0.05209367252560202</v>
       </c>
       <c r="T8">
-        <v>0.05437229529833387</v>
+        <v>0.05209367252560202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H9">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>4973.878033144505</v>
+        <v>5004.586760497066</v>
       </c>
       <c r="R9">
-        <v>4973.878033144505</v>
+        <v>45041.28084447359</v>
       </c>
       <c r="S9">
-        <v>0.107874903618742</v>
+        <v>0.08003170229602759</v>
       </c>
       <c r="T9">
-        <v>0.107874903618742</v>
+        <v>0.08003170229602759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H10">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>2335.031835627978</v>
+        <v>2500.757014436267</v>
       </c>
       <c r="R10">
-        <v>2335.031835627978</v>
+        <v>22506.8131299264</v>
       </c>
       <c r="S10">
-        <v>0.05064284498665433</v>
+        <v>0.03999128209222768</v>
       </c>
       <c r="T10">
-        <v>0.05064284498665433</v>
+        <v>0.03999128209222767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H11">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>2620.876722938403</v>
+        <v>2624.809837181333</v>
       </c>
       <c r="R11">
-        <v>2620.876722938403</v>
+        <v>23623.288534632</v>
       </c>
       <c r="S11">
-        <v>0.05684233147648045</v>
+        <v>0.04197509395403442</v>
       </c>
       <c r="T11">
-        <v>0.05684233147648045</v>
+        <v>0.04197509395403442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H12">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>1957.13979945671</v>
+        <v>1999.4410514864</v>
       </c>
       <c r="R12">
-        <v>1957.13979945671</v>
+        <v>17994.9694633776</v>
       </c>
       <c r="S12">
-        <v>0.04244701334208667</v>
+        <v>0.03197440241302211</v>
       </c>
       <c r="T12">
-        <v>0.04244701334208667</v>
+        <v>0.03197440241302211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H13">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>3698.855348191528</v>
+        <v>3980.399243806666</v>
       </c>
       <c r="R13">
-        <v>3698.855348191528</v>
+        <v>35823.59319425999</v>
       </c>
       <c r="S13">
-        <v>0.08022184330353822</v>
+        <v>0.06365323303297644</v>
       </c>
       <c r="T13">
-        <v>0.08022184330353822</v>
+        <v>0.06365323303297643</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H14">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>3798.679403446418</v>
+        <v>3.896716275404667</v>
       </c>
       <c r="R14">
-        <v>3798.679403446418</v>
+        <v>35.070446478642</v>
       </c>
       <c r="S14">
-        <v>0.08238685625071845</v>
+        <v>6.231500257861392E-05</v>
       </c>
       <c r="T14">
-        <v>0.08238685625071845</v>
+        <v>6.231500257861392E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H15">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>7536.598782097758</v>
+        <v>5.986539665292445</v>
       </c>
       <c r="R15">
-        <v>7536.598782097758</v>
+        <v>53.878856987632</v>
       </c>
       <c r="S15">
-        <v>0.163455931531545</v>
+        <v>9.573476956336331E-05</v>
       </c>
       <c r="T15">
-        <v>0.163455931531545</v>
+        <v>9.573476956336331E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H16">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>3538.124170171431</v>
+        <v>2.991432015596445</v>
       </c>
       <c r="R16">
-        <v>3538.124170171431</v>
+        <v>26.922888140368</v>
       </c>
       <c r="S16">
-        <v>0.07673585908319674</v>
+        <v>4.783799501704348E-05</v>
       </c>
       <c r="T16">
-        <v>0.07673585908319674</v>
+        <v>4.783799501704347E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H17">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>3971.246618131953</v>
+        <v>3.139825315482223</v>
       </c>
       <c r="R17">
-        <v>3971.246618131953</v>
+        <v>28.25842783934</v>
       </c>
       <c r="S17">
-        <v>0.08612954385341144</v>
+        <v>5.021105176828744E-05</v>
       </c>
       <c r="T17">
-        <v>0.08612954385341144</v>
+        <v>5.021105176828744E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H18">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>2965.528573617913</v>
+        <v>2.391752553401334</v>
       </c>
       <c r="R18">
-        <v>2965.528573617913</v>
+        <v>21.525772980612</v>
       </c>
       <c r="S18">
-        <v>0.06431724037579822</v>
+        <v>3.824811867195354E-05</v>
       </c>
       <c r="T18">
-        <v>0.06431724037579822</v>
+        <v>3.824811867195354E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04110466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123314</v>
+      </c>
+      <c r="I19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="J19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>4.761395714994444</v>
+      </c>
+      <c r="R19">
+        <v>42.85256143495</v>
+      </c>
+      <c r="S19">
+        <v>7.614267123589018E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.614267123589017E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.077003</v>
+      </c>
+      <c r="H20">
+        <v>0.231009</v>
+      </c>
+      <c r="I20">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J20">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.799851</v>
+      </c>
+      <c r="N20">
+        <v>284.399553</v>
+      </c>
+      <c r="O20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q20">
+        <v>7.299872926553</v>
+      </c>
+      <c r="R20">
+        <v>65.69885633897701</v>
+      </c>
+      <c r="S20">
+        <v>0.0001167371622904376</v>
+      </c>
+      <c r="T20">
+        <v>0.0001167371622904376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.077003</v>
+      </c>
+      <c r="H21">
+        <v>0.231009</v>
+      </c>
+      <c r="I21">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J21">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N21">
+        <v>436.924088</v>
+      </c>
+      <c r="O21">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P21">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q21">
+        <v>11.21482184942133</v>
+      </c>
+      <c r="R21">
+        <v>100.933396644792</v>
+      </c>
+      <c r="S21">
+        <v>0.0001793437353590265</v>
+      </c>
+      <c r="T21">
+        <v>0.0001793437353590265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.077003</v>
+      </c>
+      <c r="H22">
+        <v>0.231009</v>
+      </c>
+      <c r="I22">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J22">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N22">
+        <v>218.327912</v>
+      </c>
+      <c r="O22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q22">
+        <v>5.603968069245333</v>
+      </c>
+      <c r="R22">
+        <v>50.435712623208</v>
+      </c>
+      <c r="S22">
+        <v>8.961681066944708E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.961681066944706E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.077003</v>
+      </c>
+      <c r="H23">
+        <v>0.231009</v>
+      </c>
+      <c r="I23">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J23">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N23">
+        <v>229.15831</v>
+      </c>
+      <c r="O23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q23">
+        <v>5.881959114976667</v>
+      </c>
+      <c r="R23">
+        <v>52.93763203479001</v>
+      </c>
+      <c r="S23">
+        <v>9.406235186548415E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.406235186548416E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.077003</v>
+      </c>
+      <c r="H24">
+        <v>0.231009</v>
+      </c>
+      <c r="I24">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J24">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N24">
+        <v>174.560658</v>
+      </c>
+      <c r="O24">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P24">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q24">
+        <v>4.480564782658</v>
+      </c>
+      <c r="R24">
+        <v>40.325083043922</v>
+      </c>
+      <c r="S24">
+        <v>7.165171550910128E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.165171550910128E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.077003</v>
+      </c>
+      <c r="H25">
+        <v>0.231009</v>
+      </c>
+      <c r="I25">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J25">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>8.919711166008332</v>
+      </c>
+      <c r="R25">
+        <v>80.27740049407498</v>
+      </c>
+      <c r="S25">
+        <v>0.0001426410816252149</v>
+      </c>
+      <c r="T25">
+        <v>0.0001426410816252149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H26">
+        <v>225.716302</v>
+      </c>
+      <c r="I26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>7132.623932623667</v>
+      </c>
+      <c r="R26">
+        <v>64193.61539361301</v>
+      </c>
+      <c r="S26">
+        <v>0.1140625714936276</v>
+      </c>
+      <c r="T26">
+        <v>0.1140625714936276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H27">
+        <v>225.716302</v>
+      </c>
+      <c r="I27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>10957.87659978695</v>
+      </c>
+      <c r="R27">
+        <v>98620.88939808257</v>
+      </c>
+      <c r="S27">
+        <v>0.1752347515988819</v>
+      </c>
+      <c r="T27">
+        <v>0.1752347515988819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="H19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="I19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="J19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q19">
-        <v>5604.638579107303</v>
-      </c>
-      <c r="R19">
-        <v>5604.638579107303</v>
-      </c>
-      <c r="S19">
-        <v>0.1215550205514093</v>
-      </c>
-      <c r="T19">
-        <v>0.1215550205514093</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H28">
+        <v>225.716302</v>
+      </c>
+      <c r="I28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>5475.574324446825</v>
+      </c>
+      <c r="R28">
+        <v>49280.16892002142</v>
+      </c>
+      <c r="S28">
+        <v>0.08756358021263992</v>
+      </c>
+      <c r="T28">
+        <v>0.08756358021263992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H29">
+        <v>225.716302</v>
+      </c>
+      <c r="I29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>5747.196256196625</v>
+      </c>
+      <c r="R29">
+        <v>51724.76630576963</v>
+      </c>
+      <c r="S29">
+        <v>0.09190726863671926</v>
+      </c>
+      <c r="T29">
+        <v>0.09190726863671927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H30">
+        <v>225.716302</v>
+      </c>
+      <c r="I30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>4377.90957760519</v>
+      </c>
+      <c r="R30">
+        <v>39401.18619844671</v>
+      </c>
+      <c r="S30">
+        <v>0.07001008729820217</v>
+      </c>
+      <c r="T30">
+        <v>0.07001008729820218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H31">
+        <v>225.716302</v>
+      </c>
+      <c r="I31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>8715.349701957537</v>
+      </c>
+      <c r="R31">
+        <v>78438.14731761783</v>
+      </c>
+      <c r="S31">
+        <v>0.1393730004360162</v>
+      </c>
+      <c r="T31">
+        <v>0.1393730004360162</v>
       </c>
     </row>
   </sheetData>
